--- a/si_pipeline/Comparador_Humano/exceles/comparison_result.xlsx
+++ b/si_pipeline/Comparador_Humano/exceles/comparison_result.xlsx
@@ -17,7 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -56,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +548,2442 @@
         <is>
           <t>CIERRE_MES</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>JULIO</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DUVERGE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FRANCISCO</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>JULIO JOSE DUVERGE FRANCISCO</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>30-93-16067</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3154014-0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>40212524975</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>EXECUTIVE INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O2" t="n">
+        <v>210</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>EXECUTIVE MG</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>35642</v>
+      </c>
+      <c r="R2" t="n">
+        <v>28</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EDWIM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ARTURO</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>QUEZADA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CAMACHO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EDWIM ARTURO QUEZADA CAMACHO</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>30-93-18387</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1222257-0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>02600765255</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>PROTECT</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>46234</v>
+      </c>
+      <c r="O3" t="n">
+        <v>677</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>GLOBAL HEALTH PROTECT</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>28744</v>
+      </c>
+      <c r="R3" t="n">
+        <v>47</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MARINELLY</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>QUEZADA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CASTILLO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MARINELLY NA QUEZADA CASTILLO</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>30-93-18387</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2485169-0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>02601181494</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PROTECT</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>46234</v>
+      </c>
+      <c r="O4" t="n">
+        <v>677</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>GLOBAL HEALTH PROTECT</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>31667</v>
+      </c>
+      <c r="R4" t="n">
+        <v>39</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MIGUEL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ARTURO</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>QUEZADA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BATISTA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MIGUEL ARTURO QUEZADA BATISTA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>30-93-18387</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>9229083-0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>40226730345</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>PROTECT</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>46234</v>
+      </c>
+      <c r="O5" t="n">
+        <v>677</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>GLOBAL HEALTH PROTECT</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>35853</v>
+      </c>
+      <c r="R5" t="n">
+        <v>27</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PATRICIA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>IRENE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PEREZ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VICTORIO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PATRICIA IRENE PEREZ VICTORIO</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>30-93-18476</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3150734-0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>00113357818</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>46265</v>
+      </c>
+      <c r="O6" t="n">
+        <v>675</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>MASTER PLUS IND</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>29188</v>
+      </c>
+      <c r="R6" t="n">
+        <v>45</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ARTURO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LIRIANO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ROA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO ARTURO LIRIANO ROA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>30-93-18480</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3151038-0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>00118378835</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>PREMIUM INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>46142</v>
+      </c>
+      <c r="O7" t="n">
+        <v>201</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>PREMIUM IND</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>32444</v>
+      </c>
+      <c r="R7" t="n">
+        <v>36</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>JOHANNY</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MARTINEZ</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GUZMAN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>JOHANNY NA MARTINEZ GUZMAN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>30-93-18506</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3152985-0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>03200008070</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>PREMIUM INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>46265</v>
+      </c>
+      <c r="O8" t="n">
+        <v>201</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>PREMIUM IND</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>26674</v>
+      </c>
+      <c r="R8" t="n">
+        <v>52</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FILPO</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CASTILLO</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>JUAN CARLOS FILPO CASTILLO</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>30-93-18507</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>3152769-0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>03400324368</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>EXECUTIVE INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>46265</v>
+      </c>
+      <c r="O9" t="n">
+        <v>209</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>EXECUTIVE SG</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>26509</v>
+      </c>
+      <c r="R9" t="n">
+        <v>53</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MICELSA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DE JESUS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ALMONTE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BUENO DE FILPO</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MICELSA DE JESUS ALMONTE BUENO DE FILPO</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>30-93-18507</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>3152770-0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>03400292227</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>EXECUTIVE INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>46265</v>
+      </c>
+      <c r="O10" t="n">
+        <v>209</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>EXECUTIVE SG</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>24228</v>
+      </c>
+      <c r="R10" t="n">
+        <v>59</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CARLA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FILPO</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ALMONTE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CARLA MARIA FILPO ALMONTE</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>30-93-18507</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>3152771-0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>40211258161</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>EXECUTIVE INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>46265</v>
+      </c>
+      <c r="O11" t="n">
+        <v>209</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>EXECUTIVE SG</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>36098</v>
+      </c>
+      <c r="R11" t="n">
+        <v>26</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RODRIGO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SANCHEZ</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>RODRIGO NA SANCHEZ FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>30-93-13771</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1110985-5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>EXECUTIVE INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>43497</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>46081</v>
+      </c>
+      <c r="O12" t="n">
+        <v>203</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>EXECUTIVE IND</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>VITTORIA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SOFIA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>VELUTINI</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>BRASCHI</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VITTORIA SOFIA VELUTINI BRASCHI</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>30-93-18012</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>9207280-2</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>PLATINUM</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="O13" t="n">
+        <v>321</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>GLOBAL HEALTH PLATINUM</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MATIAS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARTURO </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>QUEZADA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VAN DER MEIJ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MATIAS ARTURO  QUEZADA VAN DER MEIJ</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30-93-18387</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ADICIONAL</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1222257-1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>40239689991</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>PROTECT</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>46234</v>
+      </c>
+      <c r="O14" t="n">
+        <v>677</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>GLOBAL HEALTH PROTECT</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>42757</v>
+      </c>
+      <c r="R14" t="n">
+        <v>8</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>JORIEN</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>VAN DER MEIJ</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>JORIEN NA VAN DER MEIJ NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>30-93-18387</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ADICIONAL</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1222257-2</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>40236365215</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>PROTECT</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>46234</v>
+      </c>
+      <c r="O15" t="n">
+        <v>677</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>GLOBAL HEALTH PROTECT</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>30969</v>
+      </c>
+      <c r="R15" t="n">
+        <v>40</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>OLIVIA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>QUEZADA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VAN DER MEIJ</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>OLIVIA NA QUEZADA VAN DER MEIJ</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>30-93-18387</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ADICIONAL</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1222257-3</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>40249425014</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>PROTECT</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>46234</v>
+      </c>
+      <c r="O16" t="n">
+        <v>677</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>GLOBAL HEALTH PROTECT</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="n">
+        <v>43985</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AMAIA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>QUEZADA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VAN DER MEIJ</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>AMAIA NA QUEZADA VAN DER MEIJ</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>30-93-18387</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>ADICIONAL</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1222257-4</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>40252233032</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>PROTECT</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>46234</v>
+      </c>
+      <c r="O17" t="n">
+        <v>677</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>GLOBAL HEALTH PROTECT</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ARTURO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VALENTIN </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CASTILLO</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>QUEZADA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ARTURO VALENTIN  CASTILLO QUEZADA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>30-93-18387</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>ADICIONAL</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2485169-1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>40246638700</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>PROTECT</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>46234</v>
+      </c>
+      <c r="O18" t="n">
+        <v>677</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>GLOBAL HEALTH PROTECT</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>43597</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NELL</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARIT </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CASTILLO</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>QUEZADA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NELL MARIT  CASTILLO QUEZADA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>30-93-18387</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>ADICIONAL</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2485169-2</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>40253164996</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>PROTECT</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>46234</v>
+      </c>
+      <c r="O19" t="n">
+        <v>677</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>GLOBAL HEALTH PROTECT</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>XAVIER</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>HIGUERAS</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PEREZ</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>XAVIER NA HIGUERAS PEREZ</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>30-93-18476</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>3150734-1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>46265</v>
+      </c>
+      <c r="O20" t="n">
+        <v>675</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>MASTER PLUS IND</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>41653</v>
+      </c>
+      <c r="R20" t="n">
+        <v>11</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>HIGUERAS</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PEREZ</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MAR NA HIGUERAS PEREZ</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>30-93-18476</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>3150734-2</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>46265</v>
+      </c>
+      <c r="O21" t="n">
+        <v>675</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>MASTER PLUS IND</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>42970</v>
+      </c>
+      <c r="R21" t="n">
+        <v>8</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LUCIA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>HIGUERAS</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PEREZ</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LUCIA NA HIGUERAS PEREZ</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>30-93-18476</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>3150734-3</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>46265</v>
+      </c>
+      <c r="O22" t="n">
+        <v>675</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>MASTER PLUS IND</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>40056</v>
+      </c>
+      <c r="R22" t="n">
+        <v>16</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>YAZMIN</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ALEXANDRA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>HENRIQUEZ</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LLANO</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>YAZMIN ALEXANDRA HENRIQUEZ LLANO</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>30-93-18506</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>ESPOSO(A)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>3152985-1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>03104511765</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>PREMIUM INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>46265</v>
+      </c>
+      <c r="O23" t="n">
+        <v>201</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>PREMIUM IND</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>30214</v>
+      </c>
+      <c r="R23" t="n">
+        <v>43</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>YOHELANNY</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ALTAGRACIA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MARTINEZ</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>HENRIQUEZ</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>YOHELANNY ALTAGRACIA MARTINEZ HENRIQUEZ</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>30-93-18506</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>3152985-2</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>40215153269</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>PREMIUM INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>46265</v>
+      </c>
+      <c r="O24" t="n">
+        <v>201</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>PREMIUM IND</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>38133</v>
+      </c>
+      <c r="R24" t="n">
+        <v>21</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CAMILA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>FILPO</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ALMONTE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CAMILA MARIA FILPO ALMONTE</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>30-93-18507</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>3152769-1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>40211653072</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>EXECUTIVE INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>46265</v>
+      </c>
+      <c r="O25" t="n">
+        <v>209</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>EXECUTIVE SG</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="n">
+        <v>36675</v>
+      </c>
+      <c r="R25" t="n">
+        <v>25</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CARMEN</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>FILPO</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ALMONTE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>CARMEN MARIA FILPO ALMONTE</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>30-93-18507</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>3152769-2</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>40210494254</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>EXECUTIVE INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>46265</v>
+      </c>
+      <c r="O26" t="n">
+        <v>209</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>EXECUTIVE SG</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="n">
+        <v>37267</v>
+      </c>
+      <c r="R26" t="n">
+        <v>23</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GISELA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FILPO</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ALMONTE</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>GISELA MARIA FILPO ALMONTE</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>30-93-18507</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>3152770-1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>40211617218</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>EXECUTIVE INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>46265</v>
+      </c>
+      <c r="O27" t="n">
+        <v>209</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>EXECUTIVE SG</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="n">
+        <v>38647</v>
+      </c>
+      <c r="R27" t="n">
+        <v>19</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="n">
+        <v>45927</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +2997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +3117,3578 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HARALD LUTZ</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HEYER</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>HARALD LUTZ NA HEYER NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>30-93-11484</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1893501-0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>00112797113</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>EXECUTIVE INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O2" t="n">
+        <v>203</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>EXECUTIVE IND</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>22299</v>
+      </c>
+      <c r="R2" t="n">
+        <v>64</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CESARINA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CAMELIA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MOREL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GRULLON</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CESARINA CAMELIA MOREL GRULLON</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>30-93-11670</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>278043-0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>00101476547</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>EXECUTIVE INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O3" t="n">
+        <v>203</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>EXECUTIVE IND</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>19228</v>
+      </c>
+      <c r="R3" t="n">
+        <v>73</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SOVEYDA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>M. DE JESUS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PAULINO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CUEVAS</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SOVEYDA M. DE JESUS PAULINO CUEVAS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>30-93-12112</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>218084-0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>05400145867</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O4" t="n">
+        <v>490</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>MASTER  LG</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>23766</v>
+      </c>
+      <c r="R4" t="n">
+        <v>60</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>VIOLA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PAULINO</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CUEVAS</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>VIOLA ELIZABETH PAULINO CUEVAS</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>30-93-12112</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>389504-0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>05400145875</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O5" t="n">
+        <v>490</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>MASTER  LG</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>25659</v>
+      </c>
+      <c r="R5" t="n">
+        <v>55</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RAMON</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ALBERTO</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PAULINO</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CUEVAS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RAMON ALBERTO PAULINO CUEVAS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>30-93-12112</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>389506-0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>05400457098</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O6" t="n">
+        <v>490</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>MASTER  LG</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>22790</v>
+      </c>
+      <c r="R6" t="n">
+        <v>63</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>VIOLETA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MERCEDES</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CUEVAS</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>VIOLETA MERCEDES CUEVAS FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>30-93-12112</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>389512-0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>05400106422</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O7" t="n">
+        <v>490</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>MASTER  LG</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>15124</v>
+      </c>
+      <c r="R7" t="n">
+        <v>84</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RAMON</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>YSIDRO</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PAULINO</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CUEVAS</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RAMON YSIDRO PAULINO CUEVAS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>30-93-12112</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>389515-0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>05400614581</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O8" t="n">
+        <v>490</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>MASTER  LG</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>24708</v>
+      </c>
+      <c r="R8" t="n">
+        <v>58</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RAMON</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ALBERTO</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PAULINO</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>JIMENEZ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RAMON ALBERTO PAULINO JIMENEZ</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>30-93-12112</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2242667-0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>00117656553</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O9" t="n">
+        <v>490</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>MASTER  LG</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>31633</v>
+      </c>
+      <c r="R9" t="n">
+        <v>39</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BIENVENIDO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ALBERTO</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PAULINO</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>JIMENEZ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BIENVENIDO ALBERTO PAULINO JIMENEZ</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>30-93-12112</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2309930-0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>00118572262</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O10" t="n">
+        <v>490</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>MASTER  LG</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>33087</v>
+      </c>
+      <c r="R10" t="n">
+        <v>35</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RAMON</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DAVID</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PAULINO</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ALMANZAR</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>RAMON DAVID PAULINO ALMANZAR</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>30-93-12112</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2673093-0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>05401391692</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O11" t="n">
+        <v>490</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>MASTER  LG</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>32762</v>
+      </c>
+      <c r="R11" t="n">
+        <v>36</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GUADALUPE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PEREZ</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GRULLON DE ALBA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MARIA GUADALUPE PEREZ GRULLON DE ALBA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>30-93-13526</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2904075-0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>03102812074</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>CLASSIC INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>43405</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="O12" t="n">
+        <v>205</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>CLASSIC IND</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>24205</v>
+      </c>
+      <c r="R12" t="n">
+        <v>59</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OSIRIS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>RAFAEL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ISIDOR</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>OSIRIS RAFAEL ISIDOR RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>30-93-14304</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>217631-0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>03101912198</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>CLASSIC INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O13" t="n">
+        <v>205</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>CLASSIC IND</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <v>24000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>60</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CLAUDIA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MICHELLE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>LESLIE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MARTINEZ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CLAUDIA MICHELLE LESLIE MARTINEZ</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30-93-15088</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>9375998-0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>00118195940</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>PREMIUM INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>46265</v>
+      </c>
+      <c r="O14" t="n">
+        <v>201</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>PREMIUM IND</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>32056</v>
+      </c>
+      <c r="R14" t="n">
+        <v>37</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>RYAN</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LARRAURI</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GOMEZ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>RYAN NA LARRAURI GOMEZ</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>30-93-16819</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2237000-0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>00100640382</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>EXECUTIVE INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>46112</v>
+      </c>
+      <c r="O15" t="n">
+        <v>203</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>EXECUTIVE IND</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>26331</v>
+      </c>
+      <c r="R15" t="n">
+        <v>53</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LORAINE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>YOKASTA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>GONZALEZ</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CRUZ</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>LORAINE YOKASTA GONZALEZ CRUZ</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>30-93-18030</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ASEGURADO</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>3106666-0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>40220537167</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>EXECUTIVE INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="O16" t="n">
+        <v>203</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>EXECUTIVE IND</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="n">
+        <v>33922</v>
+      </c>
+      <c r="R16" t="n">
+        <v>32</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MILDRED</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MARCANO</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MILDRED NA FERNANDEZ MARCANO</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>30-93-11484</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>ESPOSO(A)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1893501-1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>04700230396</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>EXECUTIVE INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O17" t="n">
+        <v>203</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>EXECUTIVE IND</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="n">
+        <v>27385</v>
+      </c>
+      <c r="R17" t="n">
+        <v>50</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ARTHUR</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>HEYER</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ARTHUR NA HEYER FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>30-93-11484</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1893501-3</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>EXECUTIVE INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O18" t="n">
+        <v>203</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>EXECUTIVE IND</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>41270</v>
+      </c>
+      <c r="R18" t="n">
+        <v>12</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CARY</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GERALMI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>RAMIREZ</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>BERROA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>CARY GERALMI RAMIREZ BERROA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>30-93-11723</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>9989466-2</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>40223935293</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="O19" t="n">
+        <v>445</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>MASTER SG</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>34947</v>
+      </c>
+      <c r="R19" t="n">
+        <v>30</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RAFAEL </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>COMPRES</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PAULINO</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>JOSE RAFAEL  COMPRES PAULINO</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>30-93-12112</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>218084-2</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>40227372667</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O20" t="n">
+        <v>490</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>MASTER  LG</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>36180</v>
+      </c>
+      <c r="R20" t="n">
+        <v>26</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RAFAEL</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>COMPRES</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>BENCOSME</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>JOSE  RAFAEL COMPRES BENCOSME</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>30-93-12112</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>ESPOSO(A)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>218084-3</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>05400729173</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O21" t="n">
+        <v>490</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>MASTER  LG</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>15419</v>
+      </c>
+      <c r="R21" t="n">
+        <v>83</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ALTAGRACIA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>JIMENEZ</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MORILLO</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MARIA ALTAGRACIA JIMENEZ MORILLO</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>30-93-12112</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>ESPOSO(A)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>389506-1</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>05400451737</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O22" t="n">
+        <v>490</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>MASTER  LG</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>23954</v>
+      </c>
+      <c r="R22" t="n">
+        <v>60</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ORLANDO</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RAMON</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>GARCIA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ARIAS</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ORLANDO RAMON GARCIA ARIAS</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>30-93-12112</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>ESPOSO(A)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>389512-1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>05400438817</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O23" t="n">
+        <v>490</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>MASTER  LG</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>16871</v>
+      </c>
+      <c r="R23" t="n">
+        <v>79</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BARBARA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>YSABEL</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PERDOMO</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>DE LA MAZA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BARBARA YSABEL PERDOMO DE LA MAZA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>30-93-12112</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>ESPOSO(A)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>389515-1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>05400117148</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O24" t="n">
+        <v>490</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>MASTER  LG</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>25680</v>
+      </c>
+      <c r="R24" t="n">
+        <v>55</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PAOLA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PAULINO</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PERDOMO</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>PAOLA NA PAULINO PERDOMO</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>30-93-12112</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>389515-3</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>03105683621</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O25" t="n">
+        <v>490</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>MASTER  LG</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="n">
+        <v>35038</v>
+      </c>
+      <c r="R25" t="n">
+        <v>29</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RAMON</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ISIDRO</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PAULINO</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>RAMON ISIDRO PAULINO NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>30-93-12112</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>389515-4</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O26" t="n">
+        <v>490</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>MASTER  LG</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="n">
+        <v>37377</v>
+      </c>
+      <c r="R26" t="n">
+        <v>23</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>VALENTINA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AVELLANEDA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>RAMIREZ</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MARIA VALENTINA AVELLANEDA RAMIREZ</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>30-93-12112</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>ESPOSO(A)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2242667-1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>001601431</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O27" t="n">
+        <v>490</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>MASTER  LG</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="n">
+        <v>33046</v>
+      </c>
+      <c r="R27" t="n">
+        <v>35</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MATTIAS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALBERTO</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PAULINO</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>AVELLANEDA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MATTIAS  ALBERTO PAULINO AVELLANEDA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>30-93-12112</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2242667-2</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>40203192261</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O28" t="n">
+        <v>490</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>MASTER  LG</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="n">
+        <v>40785</v>
+      </c>
+      <c r="R28" t="n">
+        <v>14</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ANABELLA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>VALENTINA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PAULINO</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>AVELLANEDA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ANABELLA VALENTINA PAULINO AVELLANEDA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>30-93-12112</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2242667-3</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>40216514279</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O29" t="n">
+        <v>490</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>MASTER  LG</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="n">
+        <v>41918</v>
+      </c>
+      <c r="R29" t="n">
+        <v>10</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ALBA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>PEREZ</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SEBASTIAN NA ALBA PEREZ</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>30-93-13526</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2904075-1</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>CLASSIC INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>43405</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="O30" t="n">
+        <v>205</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>CLASSIC IND</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="n">
+        <v>38378</v>
+      </c>
+      <c r="R30" t="n">
+        <v>20</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>RODOLFO</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EMILIO</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ALBA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>PEREZ</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>RODOLFO EMILIO ALBA PEREZ</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>30-93-13526</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2904075-2</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>40211015009</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>CLASSIC INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>43405</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="O31" t="n">
+        <v>205</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>CLASSIC IND</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="n">
+        <v>35720</v>
+      </c>
+      <c r="R31" t="n">
+        <v>27</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U31" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MANUEL</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ISIDOR</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>COLON</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>CARLOS MANUEL ISIDOR COLON</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>30-93-14304</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>217631-4</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>40219486020</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>CLASSIC INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O32" t="n">
+        <v>205</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>CLASSIC IND</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="n">
+        <v>37436</v>
+      </c>
+      <c r="R32" t="n">
+        <v>23</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>EVELYN</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>COLON</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CRUZ</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>EVELYN NA COLON CRUZ</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>30-93-14304</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>ESPOSO(A)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>217631-5</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>03102392010</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>CLASSIC INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N33" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O33" t="n">
+        <v>205</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>CLASSIC IND</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="n">
+        <v>27857</v>
+      </c>
+      <c r="R33" t="n">
+        <v>49</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SARAY</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ISIDOR</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>RIVAS</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SARAY NA ISIDOR RIVAS</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>30-93-14304</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>217631-6</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>40219334998</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>CLASSIC INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O34" t="n">
+        <v>205</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>CLASSIC IND</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="n">
+        <v>37187</v>
+      </c>
+      <c r="R34" t="n">
+        <v>23</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PAULA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CAMILA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DOMINGUEZ</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ESPINOSA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>PAULA CAMILA DOMINGUEZ ESPINOSA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>30-93-14342</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>6675844-3</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>40200599849</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>EXECUTIVE INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="O35" t="n">
+        <v>210</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>EXECUTIVE MG</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="n">
+        <v>34765</v>
+      </c>
+      <c r="R35" t="n">
+        <v>30</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U35" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MONICA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>GONZALEZ</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MONICA NA GONZALEZ NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>30-93-16819</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>ESPOSO(A)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2237000-1</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>00112226725</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>EXECUTIVE INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>46112</v>
+      </c>
+      <c r="O36" t="n">
+        <v>203</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>EXECUTIVE IND</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="n">
+        <v>26325</v>
+      </c>
+      <c r="R36" t="n">
+        <v>53</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CAMILA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>LARRAURI</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GONZALEZ</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>CAMILA NA LARRAURI GONZALEZ</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>30-93-16819</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2237000-2</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>40212371237</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>EXECUTIVE INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v>46112</v>
+      </c>
+      <c r="O37" t="n">
+        <v>203</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>EXECUTIVE IND</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="n">
+        <v>36303</v>
+      </c>
+      <c r="R37" t="n">
+        <v>26</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U37" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>LARRAURI</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GONZALEZ</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>JOSE MARIA LARRAURI GONZALEZ</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>30-93-16819</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2237000-3</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>EXECUTIVE INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>46112</v>
+      </c>
+      <c r="O38" t="n">
+        <v>203</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>EXECUTIVE IND</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="n">
+        <v>37431</v>
+      </c>
+      <c r="R38" t="n">
+        <v>23</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DANIELA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>LARRAURI</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GONZALEZ</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>DANIELA NA LARRAURI GONZALEZ</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>30-93-16819</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>DEPENDIENT</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>HIJO(A)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2237000-4</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>EXECUTIVE INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>46112</v>
+      </c>
+      <c r="O39" t="n">
+        <v>203</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>EXECUTIVE IND</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="n">
+        <v>39049</v>
+      </c>
+      <c r="R39" t="n">
+        <v>18</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
